--- a/Employee (hr.employee) (2) (1).xlsx
+++ b/Employee (hr.employee) (2) (1).xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$B$206</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$B$205</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="225">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">vendor_name/name</t>
+    <t xml:space="preserve">vendor</t>
   </si>
   <si>
     <t xml:space="preserve">__export__.hr_employee_528_3941bcfb</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Partner Outsourcing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__export__.hr_employee_560_2cd32f0f</t>
   </si>
   <si>
     <t xml:space="preserve">__export__.hr_employee_53_ffd52e03</t>
@@ -818,10 +815,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,23 +913,23 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,7 +961,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +969,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,7 +977,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,7 +985,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,15 +993,15 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,7 +1009,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,7 +1025,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,7 +1033,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,7 +1057,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +1065,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,31 +1073,31 @@
         <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,15 +1105,15 @@
         <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,15 +1121,15 @@
         <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,7 +1137,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,7 +1145,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,7 +1153,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,7 +1161,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,7 +1169,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,7 +1177,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,7 +1185,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,15 +1193,15 @@
         <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,7 +1209,7 @@
         <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,7 +1217,7 @@
         <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,7 +1225,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,7 +1233,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1241,7 @@
         <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,7 +1249,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,15 +1257,15 @@
         <v>66</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,7 +1273,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,7 +1281,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,7 +1321,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,23 +1329,23 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +1353,7 @@
         <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1361,7 @@
         <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1377,7 @@
         <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,7 +1393,7 @@
         <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,15 +1401,15 @@
         <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,7 +1417,7 @@
         <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,7 +1425,7 @@
         <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +1433,7 @@
         <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +1457,7 @@
         <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,7 +1465,7 @@
         <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,7 +1473,7 @@
         <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1481,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1489,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,7 +1497,7 @@
         <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1505,7 @@
         <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,7 +1529,7 @@
         <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +1537,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1545,7 @@
         <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1585,7 @@
         <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1593,7 @@
         <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,7 +1625,7 @@
         <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1633,7 @@
         <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1641,7 @@
         <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1649,7 @@
         <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1657,7 @@
         <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1665,7 @@
         <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1697,7 @@
         <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,7 +1705,7 @@
         <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1721,7 @@
         <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1729,7 @@
         <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1737,7 @@
         <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +1745,7 @@
         <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1753,7 @@
         <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,7 +1761,7 @@
         <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1769,7 @@
         <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,7 +1785,7 @@
         <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,15 +1793,15 @@
         <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,7 +1849,7 @@
         <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,7 +1865,7 @@
         <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,7 +1873,7 @@
         <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,7 +1881,7 @@
         <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +1905,7 @@
         <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,7 +1913,7 @@
         <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,7 +1921,7 @@
         <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,7 +1929,7 @@
         <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,7 +1937,7 @@
         <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,7 +1953,7 @@
         <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,7 +1961,7 @@
         <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,7 +1969,7 @@
         <v>160</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +1977,7 @@
         <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,7 +1985,7 @@
         <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,7 +2009,7 @@
         <v>165</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2017,7 @@
         <v>166</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,7 +2025,7 @@
         <v>167</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,7 +2033,7 @@
         <v>168</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2057,7 @@
         <v>171</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,7 +2065,7 @@
         <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,7 +2073,7 @@
         <v>173</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,7 +2081,7 @@
         <v>174</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,7 +2089,7 @@
         <v>175</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,7 +2097,7 @@
         <v>176</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,7 +2105,7 @@
         <v>177</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,7 +2113,7 @@
         <v>178</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,7 +2129,7 @@
         <v>180</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,7 +2145,7 @@
         <v>182</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,7 +2153,7 @@
         <v>183</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2161,7 @@
         <v>184</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,7 +2169,7 @@
         <v>185</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,7 +2177,7 @@
         <v>186</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,7 +2201,7 @@
         <v>189</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,7 +2209,7 @@
         <v>190</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,7 +2217,7 @@
         <v>191</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,7 +2233,7 @@
         <v>193</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,7 +2241,7 @@
         <v>194</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2249,7 @@
         <v>195</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2257,7 @@
         <v>196</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2265,7 @@
         <v>197</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2273,7 @@
         <v>198</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,7 +2297,7 @@
         <v>201</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,7 +2305,7 @@
         <v>202</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,7 +2313,7 @@
         <v>203</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,7 +2321,7 @@
         <v>204</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,7 +2329,7 @@
         <v>205</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2337,7 @@
         <v>206</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,7 +2345,7 @@
         <v>207</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,15 +2353,15 @@
         <v>208</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,7 +2393,7 @@
         <v>214</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,7 +2401,7 @@
         <v>215</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2409,7 @@
         <v>216</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,7 +2425,7 @@
         <v>218</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,7 +2441,7 @@
         <v>220</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +2449,7 @@
         <v>221</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,7 +2457,7 @@
         <v>222</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,19 +2465,12 @@
         <v>223</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B1:B206"/>
+  <autoFilter ref="B1:B205"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
